--- a/Hometask3/scimagojr.xlsx
+++ b/Hometask3/scimagojr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="226">
   <si>
     <t>Rank</t>
   </si>
@@ -86,54 +86,54 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>Middle East</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
     <t>Pacific Region</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Latin America</t>
+    <t>Taiwan</t>
   </si>
   <si>
     <t>Turkey</t>
   </si>
   <si>
-    <t>Taiwan</t>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -143,568 +143,556 @@
     <t>Africa/Middle East</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>Romania</t>
   </si>
   <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Algeria</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>Algeria</t>
+    <t>Colombia</t>
   </si>
   <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
   </si>
   <si>
     <t>Nigeria</t>
   </si>
   <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
   </si>
   <si>
     <t>Iraq</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
     <t>Kazakhstan</t>
   </si>
   <si>
+    <t>Oman</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Latvia</t>
+    <t>Latvia </t>
   </si>
   <si>
     <t>Lebanon</t>
   </si>
   <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Philippines </t>
   </si>
   <si>
     <t>Peru</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Belarus</t>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
   </si>
   <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
   </si>
   <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Malta</t>
   </si>
   <si>
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
   </si>
   <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Armenia</t>
+    <t>Senegal </t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
   </si>
   <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
   <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Mali</t>
   </si>
   <si>
-    <t>Nicaragua</t>
+    <t>Madagascar</t>
   </si>
   <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
   </si>
   <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>Republic of South Sudan</t>
   </si>
   <si>
-    <t>Samoa</t>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>San Marino</t>
   </si>
   <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>Timor-Leste</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
   </si>
   <si>
     <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
   </si>
 </sst>
 </file>
@@ -798,7 +786,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -848,22 +836,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>360468</v>
+        <v>273437</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>358777</v>
+        <v>272374</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3947871</v>
+        <v>2336764</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2705774</v>
+        <v>1615239</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>10.95</v>
+        <v>8.55</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>308</v>
+        <v>245</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -877,22 +865,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>199442</v>
+        <v>175891</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>195042</v>
+        <v>172431</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3068926</v>
+        <v>2230544</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>881789</v>
+        <v>724472</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>15.39</v>
+        <v>12.68</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>422</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -906,22 +894,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>76103</v>
+        <v>55082</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>74167</v>
+        <v>53775</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>760964</v>
+        <v>463165</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>280893</v>
+        <v>162944</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>10</v>
+        <v>8.41</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -935,22 +923,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>56249</v>
+        <v>50523</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>55680</v>
+        <v>50065</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>633294</v>
+        <v>488062</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>136132</v>
+        <v>119930</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>11.26</v>
+        <v>9.66</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -964,22 +952,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>52572</v>
+        <v>43389</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>51156</v>
+        <v>42284</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>909276</v>
+        <v>615670</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>151672</v>
+        <v>111290</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>17.3</v>
+        <v>14.19</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -993,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>47781</v>
+        <v>38739</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>46767</v>
+        <v>38013</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>641717</v>
+        <v>433148</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>133693</v>
+        <v>95145</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>13.43</v>
+        <v>11.18</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1022,22 +1010,22 @@
         <v>19</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>43567</v>
+        <v>36735</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>43290</v>
+        <v>36560</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>175721</v>
+        <v>115938</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>79765</v>
+        <v>54993</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4.03</v>
+        <v>3.16</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1051,22 +1039,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>39036</v>
+        <v>33472</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>38276</v>
+        <v>32863</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>787010</v>
+        <v>568080</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>125333</v>
+        <v>100953</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>20.16</v>
+        <v>16.97</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1080,22 +1068,22 @@
         <v>16</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>35991</v>
+        <v>27983</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>34424</v>
+        <v>26940</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>529459</v>
+        <v>352993</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>123042</v>
+        <v>87828</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>14.71</v>
+        <v>12.61</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1109,22 +1097,22 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>35294</v>
+        <v>27655</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>35005</v>
+        <v>27445</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>503147</v>
+        <v>328488</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>87529</v>
+        <v>61531</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>14.26</v>
+        <v>11.88</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1135,25 +1123,25 @@
         <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>29776</v>
+        <v>25232</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>29448</v>
+        <v>24732</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>511199</v>
+        <v>343860</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>150489</v>
+        <v>65734</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>17.17</v>
+        <v>13.63</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1161,28 +1149,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="0" t="n">
-        <v>29351</v>
+        <v>22933</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>28759</v>
+        <v>22734</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>471469</v>
+        <v>307280</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>79375</v>
+        <v>97038</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>16.06</v>
+        <v>13.4</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>205</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1196,22 +1184,22 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>27880</v>
+        <v>21955</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>27272</v>
+        <v>21597</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>515485</v>
+        <v>352497</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>88803</v>
+        <v>64588</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>18.49</v>
+        <v>16.06</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1225,22 +1213,22 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>25906</v>
+        <v>21524</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>25237</v>
+        <v>21236</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>495278</v>
+        <v>183915</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>72475</v>
+        <v>45172</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>19.12</v>
+        <v>8.54</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>212</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1254,22 +1242,22 @@
         <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>25887</v>
+        <v>20614</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>25493</v>
+        <v>20147</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>260540</v>
+        <v>314307</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>60487</v>
+        <v>51583</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>10.06</v>
+        <v>15.25</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1280,25 +1268,25 @@
         <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>16617</v>
+        <v>13362</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>16261</v>
+        <v>13241</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>330572</v>
+        <v>201036</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>61731</v>
+        <v>27202</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>19.89</v>
+        <v>15.05</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1309,25 +1297,25 @@
         <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>16427</v>
+        <v>12828</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>16260</v>
+        <v>12549</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>275501</v>
+        <v>226772</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>34142</v>
+        <v>46271</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>16.77</v>
+        <v>17.68</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1338,25 +1326,25 @@
         <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>15513</v>
+        <v>10862</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>15243</v>
+        <v>10731</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>153286</v>
+        <v>123291</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>41160</v>
+        <v>24525</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>9.88</v>
+        <v>11.35</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1367,25 +1355,25 @@
         <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>14562</v>
+        <v>10853</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>14088</v>
+        <v>10590</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>223466</v>
+        <v>153253</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>47081</v>
+        <v>19912</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>15.35</v>
+        <v>14.12</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1396,25 +1384,25 @@
         <v>35</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>14385</v>
+        <v>10522</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>14146</v>
+        <v>10200</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>196056</v>
+        <v>129455</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>35289</v>
+        <v>30041</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>13.63</v>
+        <v>12.3</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1428,22 +1416,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>13130</v>
+        <v>9611</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>12778</v>
+        <v>9453</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>224307</v>
+        <v>160992</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>26617</v>
+        <v>24269</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>17.08</v>
+        <v>16.75</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1454,25 +1442,25 @@
         <v>37</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>12976</v>
+        <v>9323</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>12782</v>
+        <v>9164</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>181342</v>
+        <v>101807</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>32373</v>
+        <v>17257</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>13.98</v>
+        <v>10.92</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1483,25 +1471,25 @@
         <v>38</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11917</v>
+        <v>9161</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>11701</v>
+        <v>8985</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>239009</v>
+        <v>84123</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>32133</v>
+        <v>21049</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>20.06</v>
+        <v>9.18</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>172</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1515,22 +1503,22 @@
         <v>16</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11545</v>
+        <v>9157</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>11235</v>
+        <v>8934</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>219115</v>
+        <v>141818</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>33211</v>
+        <v>24238</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>18.98</v>
+        <v>15.49</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1544,22 +1532,22 @@
         <v>41</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10876</v>
+        <v>7808</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>10706</v>
+        <v>7707</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>143990</v>
+        <v>79264</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>30017</v>
+        <v>14900</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>13.24</v>
+        <v>10.15</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1570,25 +1558,25 @@
         <v>42</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>9209</v>
+        <v>7553</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>9050</v>
+        <v>7400</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>37825</v>
+        <v>121446</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>22319</v>
+        <v>17023</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>4.11</v>
+        <v>16.08</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1599,25 +1587,25 @@
         <v>43</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>9093</v>
+        <v>7355</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>8807</v>
+        <v>7156</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>93247</v>
+        <v>63975</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>14858</v>
+        <v>10993</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>10.25</v>
+        <v>8.7</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1628,25 +1616,25 @@
         <v>44</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>9025</v>
+        <v>6810</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>8813</v>
+        <v>6667</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>172863</v>
+        <v>22058</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>20831</v>
+        <v>12584</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>19.15</v>
+        <v>3.24</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1660,22 +1648,22 @@
         <v>16</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>8815</v>
+        <v>6496</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>8320</v>
+        <v>6159</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>121161</v>
+        <v>77864</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>19180</v>
+        <v>12980</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>13.74</v>
+        <v>11.99</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1689,22 +1677,22 @@
         <v>19</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>8531</v>
+        <v>6436</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>8414</v>
+        <v>6362</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>59015</v>
+        <v>33355</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>12327</v>
+        <v>7938</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>6.92</v>
+        <v>5.18</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1718,22 +1706,22 @@
         <v>10</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>7897</v>
+        <v>6241</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>7803</v>
+        <v>6044</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>82330</v>
+        <v>111956</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>18983</v>
+        <v>10421</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>10.43</v>
+        <v>17.94</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1744,25 +1732,25 @@
         <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>7697</v>
+        <v>5905</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>7431</v>
+        <v>5757</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>167798</v>
+        <v>107254</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>14086</v>
+        <v>14354</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>21.8</v>
+        <v>18.16</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1776,22 +1764,22 @@
         <v>16</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>7537</v>
+        <v>5849</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>7337</v>
+        <v>5667</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>149714</v>
+        <v>78056</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>18867</v>
+        <v>9625</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>19.86</v>
+        <v>13.35</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1805,22 +1793,22 @@
         <v>10</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>7525</v>
+        <v>5637</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>7466</v>
+        <v>5557</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>39730</v>
+        <v>102772</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>9765</v>
+        <v>11549</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>5.28</v>
+        <v>18.23</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1831,25 +1819,25 @@
         <v>51</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>7334</v>
+        <v>5423</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>7122</v>
+        <v>5289</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>119003</v>
+        <v>45164</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>13159</v>
+        <v>7743</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>16.23</v>
+        <v>8.33</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1857,28 +1845,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>7270</v>
+        <v>5114</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>7089</v>
+        <v>5071</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>76980</v>
+        <v>20342</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>12446</v>
+        <v>5211</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>10.59</v>
+        <v>3.98</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1889,25 +1877,25 @@
         <v>54</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>7098</v>
+        <v>4734</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>6971</v>
+        <v>4609</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>159429</v>
+        <v>59251</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>15613</v>
+        <v>9284</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>22.46</v>
+        <v>12.52</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1921,22 +1909,22 @@
         <v>10</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>6454</v>
+        <v>4703</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>6376</v>
+        <v>4657</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>84640</v>
+        <v>30928</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>10673</v>
+        <v>7098</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>13.11</v>
+        <v>6.58</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>110</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1947,25 +1935,25 @@
         <v>56</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>6040</v>
+        <v>4578</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>5867</v>
+        <v>4519</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>91888</v>
+        <v>55267</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>12753</v>
+        <v>7037</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>15.21</v>
+        <v>12.07</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1979,22 +1967,22 @@
         <v>16</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>5695</v>
+        <v>4445</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>5501</v>
+        <v>4299</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>72981</v>
+        <v>47892</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>8900</v>
+        <v>6009</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>12.81</v>
+        <v>10.77</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2008,22 +1996,22 @@
         <v>19</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>5574</v>
+        <v>4273</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>5494</v>
+        <v>4215</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>39821</v>
+        <v>22140</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>7496</v>
+        <v>4943</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>7.14</v>
+        <v>5.18</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2034,25 +2022,25 @@
         <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>5483</v>
+        <v>3814</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>5395</v>
+        <v>3731</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>60685</v>
+        <v>32820</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>7581</v>
+        <v>6673</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>11.07</v>
+        <v>8.61</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2063,25 +2051,25 @@
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>4941</v>
+        <v>3731</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>4854</v>
+        <v>3688</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>52476</v>
+        <v>31879</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>10285</v>
+        <v>3587</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>10.62</v>
+        <v>8.54</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2092,25 +2080,25 @@
         <v>61</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>4492</v>
+        <v>3110</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>4453</v>
+        <v>3083</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>28147</v>
+        <v>31289</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>5852</v>
+        <v>4611</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>6.27</v>
+        <v>10.06</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2121,25 +2109,25 @@
         <v>62</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>4113</v>
+        <v>3024</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>4078</v>
+        <v>2991</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>48202</v>
+        <v>13044</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>7245</v>
+        <v>2442</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>11.72</v>
+        <v>4.31</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2150,25 +2138,25 @@
         <v>63</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3390</v>
+        <v>2459</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>3308</v>
+        <v>2414</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>28207</v>
+        <v>34755</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5098</v>
+        <v>4424</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>8.32</v>
+        <v>14.13</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2179,25 +2167,25 @@
         <v>64</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>3364</v>
+        <v>2416</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>3300</v>
+        <v>2379</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>40295</v>
+        <v>46194</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>6316</v>
+        <v>5082</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>11.98</v>
+        <v>19.12</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2211,22 +2199,22 @@
         <v>30</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>3295</v>
+        <v>2405</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>3238</v>
+        <v>2356</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>36405</v>
+        <v>32461</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>5110</v>
+        <v>3453</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>11.05</v>
+        <v>13.5</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2237,25 +2225,25 @@
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>3222</v>
+        <v>2389</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>3157</v>
+        <v>2353</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>67215</v>
+        <v>14734</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>6922</v>
+        <v>2937</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>20.86</v>
+        <v>6.17</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>118</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2266,22 +2254,22 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>3092</v>
+        <v>2347</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>3080</v>
+        <v>2297</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>21842</v>
+        <v>21887</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3696</v>
+        <v>3083</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>7.06</v>
+        <v>9.33</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>61</v>
@@ -2295,25 +2283,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>3023</v>
+        <v>2239</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2966</v>
+        <v>2207</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>31748</v>
+        <v>26920</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>4894</v>
+        <v>3620</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>10.5</v>
+        <v>12.02</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2324,25 +2312,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2977</v>
+        <v>2219</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>2952</v>
+        <v>2171</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>28105</v>
+        <v>19138</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>5369</v>
+        <v>3343</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>9.44</v>
+        <v>8.62</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2353,25 +2341,25 @@
         <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2939</v>
+        <v>2147</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2868</v>
+        <v>2135</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>47144</v>
+        <v>15363</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>4460</v>
+        <v>2450</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>16.04</v>
+        <v>7.16</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2382,25 +2370,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>2923</v>
+        <v>2135</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>2890</v>
+        <v>2108</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>35625</v>
+        <v>12682</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4462</v>
+        <v>2606</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>12.19</v>
+        <v>5.94</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2411,25 +2399,25 @@
         <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>2895</v>
+        <v>2021</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2837</v>
+        <v>1980</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>48945</v>
+        <v>17067</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>5326</v>
+        <v>3260</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>16.91</v>
+        <v>8.44</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2443,22 +2431,22 @@
         <v>19</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2825</v>
+        <v>2015</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2765</v>
+        <v>1984</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>29661</v>
+        <v>19315</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>4831</v>
+        <v>2894</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>10.5</v>
+        <v>9.59</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2472,22 +2460,22 @@
         <v>19</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2744</v>
+        <v>1884</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2671</v>
+        <v>1857</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>25615</v>
+        <v>7720</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>4090</v>
+        <v>2202</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>9.33</v>
+        <v>4.1</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2501,22 +2489,22 @@
         <v>19</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>2736</v>
+        <v>1855</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>2662</v>
+        <v>1802</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>15600</v>
+        <v>13923</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>3844</v>
+        <v>2504</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>5.7</v>
+        <v>7.51</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2527,25 +2515,25 @@
         <v>76</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>2715</v>
+        <v>1819</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2676</v>
+        <v>1794</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>21392</v>
+        <v>11285</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>4924</v>
+        <v>2586</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>7.88</v>
+        <v>6.2</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2556,25 +2544,25 @@
         <v>77</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2661</v>
+        <v>1792</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2620</v>
+        <v>1763</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>29727</v>
+        <v>16030</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3996</v>
+        <v>1874</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>11.17</v>
+        <v>8.95</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2585,25 +2573,25 @@
         <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>2396</v>
+        <v>1745</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>2360</v>
+        <v>1721</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>30115</v>
+        <v>12286</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4489</v>
+        <v>2304</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>12.57</v>
+        <v>7.04</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2614,25 +2602,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2134</v>
+        <v>1677</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2096</v>
+        <v>1650</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>22864</v>
+        <v>15785</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>2345</v>
+        <v>2580</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>10.71</v>
+        <v>9.41</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2646,22 +2634,22 @@
         <v>19</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1931</v>
+        <v>1439</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1871</v>
+        <v>1389</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>27319</v>
+        <v>17969</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2562</v>
+        <v>1822</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>14.15</v>
+        <v>12.49</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2672,25 +2660,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1860</v>
+        <v>1375</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1834</v>
+        <v>1337</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>25793</v>
+        <v>8548</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3369</v>
+        <v>3221</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>13.87</v>
+        <v>6.22</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2701,25 +2689,25 @@
         <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1783</v>
+        <v>1304</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1738</v>
+        <v>1298</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>14138</v>
+        <v>14160</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4292</v>
+        <v>1241</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>7.93</v>
+        <v>10.86</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2730,25 +2718,25 @@
         <v>83</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1760</v>
+        <v>1265</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1753</v>
+        <v>1245</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>8829</v>
+        <v>17188</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1873</v>
+        <v>1931</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>5.02</v>
+        <v>13.59</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2759,25 +2747,25 @@
         <v>84</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1759</v>
+        <v>1196</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1737</v>
+        <v>1192</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>8984</v>
+        <v>3326</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1858</v>
+        <v>848</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>5.11</v>
+        <v>2.78</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2788,25 +2776,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1631</v>
+        <v>1160</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1594</v>
+        <v>1143</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>14450</v>
+        <v>3828</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>2341</v>
+        <v>926</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>8.86</v>
+        <v>3.3</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2817,25 +2805,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1519</v>
+        <v>1054</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1467</v>
+        <v>1034</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>16884</v>
+        <v>9945</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1599</v>
+        <v>1000</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>11.12</v>
+        <v>9.44</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2846,25 +2834,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1357</v>
+        <v>1011</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1350</v>
+        <v>984</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>17305</v>
+        <v>6550</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>12.75</v>
+        <v>6.48</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2878,22 +2866,22 @@
         <v>19</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1276</v>
+        <v>939</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1272</v>
+        <v>935</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>5943</v>
+        <v>3384</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1920</v>
+        <v>1218</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>4.66</v>
+        <v>3.6</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2904,25 +2892,25 @@
         <v>89</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1152</v>
+        <v>887</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1147</v>
+        <v>884</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>17151</v>
+        <v>11604</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1531</v>
+        <v>1013</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>14.89</v>
+        <v>13.08</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2933,25 +2921,25 @@
         <v>90</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1089</v>
+        <v>845</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1051</v>
+        <v>841</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>18943</v>
+        <v>2264</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1421</v>
+        <v>662</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>17.39</v>
+        <v>2.68</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2962,25 +2950,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1075</v>
+        <v>736</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1071</v>
+        <v>709</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>4783</v>
+        <v>12266</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1053</v>
+        <v>924</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>4.45</v>
+        <v>16.67</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -2991,25 +2979,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>989</v>
+        <v>648</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>987</v>
+        <v>645</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>3464</v>
+        <v>2295</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>855</v>
+        <v>534</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3023,22 +3011,22 @@
         <v>10</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>980</v>
+        <v>623</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>970</v>
+        <v>591</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>7157</v>
+        <v>5143</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1140</v>
+        <v>546</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>7.3</v>
+        <v>8.26</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3052,22 +3040,22 @@
         <v>10</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>907</v>
+        <v>620</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>871</v>
+        <v>614</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>8075</v>
+        <v>3558</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>806</v>
+        <v>582</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>8.9</v>
+        <v>5.74</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3078,25 +3066,25 @@
         <v>95</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>806</v>
+        <v>602</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>803</v>
+        <v>601</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>3289</v>
+        <v>1307</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>789</v>
+        <v>255</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>4.08</v>
+        <v>2.17</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3107,25 +3095,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>636</v>
+        <v>463</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>632</v>
+        <v>452</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>5137</v>
+        <v>2392</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>870</v>
+        <v>395</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>8.08</v>
+        <v>5.17</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3136,25 +3124,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>633</v>
+        <v>407</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>611</v>
+        <v>388</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>5597</v>
+        <v>3261</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>437</v>
+        <v>156</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>8.84</v>
+        <v>8.01</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3165,25 +3153,25 @@
         <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>616</v>
+        <v>406</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>605</v>
+        <v>404</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>4158</v>
+        <v>2635</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>647</v>
+        <v>197</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>6.75</v>
+        <v>6.49</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3197,22 +3185,22 @@
         <v>10</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>611</v>
+        <v>377</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>588</v>
+        <v>365</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>6308</v>
+        <v>2976</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>529</v>
+        <v>278</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>10.32</v>
+        <v>7.89</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3223,25 +3211,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>557</v>
+        <v>339</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>549</v>
+        <v>328</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>4670</v>
+        <v>1682</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>627</v>
+        <v>345</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>8.38</v>
+        <v>4.96</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3252,25 +3240,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>537</v>
+        <v>338</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>535</v>
+        <v>332</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>4158</v>
+        <v>2644</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>7.74</v>
+        <v>7.82</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3281,25 +3269,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>3068</v>
+        <v>1950</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>532</v>
+        <v>260</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>7.12</v>
+        <v>6</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3313,22 +3301,22 @@
         <v>10</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>6976</v>
+        <v>4113</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>421</v>
+        <v>297</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>16.49</v>
+        <v>12.77</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3339,25 +3327,25 @@
         <v>104</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>2997</v>
+        <v>1595</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>7.61</v>
+        <v>5.28</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3368,25 +3356,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>3672</v>
+        <v>2977</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>9.54</v>
+        <v>10.2</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3397,25 +3385,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>383</v>
+        <v>273</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3716</v>
+        <v>2225</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>419</v>
+        <v>257</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>9.7</v>
+        <v>8.15</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3426,25 +3414,25 @@
         <v>107</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>4175</v>
+        <v>1971</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>10.96</v>
+        <v>7.3</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3455,25 +3443,25 @@
         <v>108</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>3349</v>
+        <v>1577</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>421</v>
+        <v>107</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>8.81</v>
+        <v>6.14</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3484,25 +3472,25 @@
         <v>109</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>2926</v>
+        <v>1909</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>8.98</v>
+        <v>7.86</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3513,25 +3501,25 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>3636</v>
+        <v>881</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>11.65</v>
+        <v>4.08</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3545,22 +3533,22 @@
         <v>10</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>2859</v>
+        <v>1337</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>9.5</v>
+        <v>6.46</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3571,25 +3559,25 @@
         <v>112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>2453</v>
+        <v>2138</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>438</v>
+        <v>208</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>8.32</v>
+        <v>10.43</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3600,25 +3588,25 @@
         <v>113</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1716</v>
+        <v>360</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>6.15</v>
+        <v>1.76</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3629,25 +3617,25 @@
         <v>114</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>2068</v>
+        <v>1906</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>7.47</v>
+        <v>10.95</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3658,25 +3646,25 @@
         <v>115</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>1261</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I99" s="0" t="n">
         <v>19</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>261</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>231</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>507</v>
-      </c>
-      <c r="G99" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3687,25 +3675,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>3277</v>
+        <v>1382</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>12.7</v>
+        <v>7.94</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3716,25 +3704,25 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1303</v>
+        <v>1879</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>5.09</v>
+        <v>11.18</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3745,25 +3733,25 @@
         <v>118</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="E102" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>1042</v>
+      </c>
+      <c r="G102" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="F102" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>385</v>
-      </c>
       <c r="H102" s="0" t="n">
-        <v>6.97</v>
+        <v>6.28</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3774,25 +3762,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3168</v>
+        <v>1358</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>13.42</v>
+        <v>8.93</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3803,25 +3791,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1220</v>
+        <v>1201</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>5.55</v>
+        <v>8.01</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3832,25 +3820,25 @@
         <v>121</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1559</v>
+        <v>657</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>7.72</v>
+        <v>4.53</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3861,25 +3849,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1757</v>
+        <v>546</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>9.35</v>
+        <v>3.99</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3890,25 +3878,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2498</v>
+        <v>670</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>321</v>
+        <v>48</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>13.5</v>
+        <v>5.36</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3919,25 +3907,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>1582</v>
+        <v>651</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>510</v>
+        <v>57</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>8.79</v>
+        <v>5.47</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3948,25 +3936,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>3.73</v>
+        <v>4.57</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -3977,25 +3965,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1354</v>
+        <v>115</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>8.52</v>
+        <v>1.13</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4006,25 +3994,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1146</v>
+        <v>695</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>7.49</v>
+        <v>7.24</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4035,25 +4023,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>1061</v>
+        <v>251</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>7.12</v>
+        <v>2.67</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4064,25 +4052,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>1413</v>
+        <v>292</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>9.61</v>
+        <v>3.11</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4096,22 +4084,22 @@
         <v>10</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>755</v>
+        <v>409</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>5.51</v>
+        <v>4.54</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4122,25 +4110,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>254</v>
+        <v>1100</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1.88</v>
+        <v>12.22</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4151,25 +4139,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>5.01</v>
+        <v>7.75</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4180,25 +4168,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>533</v>
+        <v>445</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>4.16</v>
+        <v>5.17</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4209,25 +4197,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>544</v>
+        <v>648</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>4.69</v>
+        <v>8.53</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4241,22 +4229,22 @@
         <v>19</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>853</v>
+        <v>455</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>7.62</v>
+        <v>6.23</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4267,25 +4255,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1403</v>
+        <v>178</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>12.99</v>
+        <v>2.44</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4296,25 +4284,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>645</v>
+        <v>89</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>6.39</v>
+        <v>1.25</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4325,25 +4313,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1110</v>
+        <v>209</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>11.33</v>
+        <v>2.94</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4354,25 +4342,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>561</v>
+        <v>931</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>5.84</v>
+        <v>13.69</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4383,22 +4371,22 @@
         <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>2.14</v>
+        <v>3.19</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>8</v>
@@ -4412,25 +4400,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>531</v>
+        <v>151</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>6.03</v>
+        <v>2.7</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4441,25 +4429,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D126" s="0" t="n">
-        <v>83</v>
-      </c>
       <c r="E126" s="0" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>709</v>
+        <v>303</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>8.54</v>
+        <v>5.72</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4470,25 +4458,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>6.18</v>
+        <v>6.02</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4499,25 +4487,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>3.08</v>
+        <v>3.33</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4531,22 +4519,22 @@
         <v>10</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>617</v>
+        <v>63</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>7.91</v>
+        <v>1.24</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4557,25 +4545,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>7.63</v>
+        <v>4.1</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4586,25 +4574,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>417</v>
+        <v>176</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>5.71</v>
+        <v>3.67</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4615,25 +4603,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>265</v>
+        <v>602</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>3.79</v>
+        <v>13.68</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4644,25 +4632,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1112</v>
+        <v>214</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>16.12</v>
+        <v>4.86</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4673,25 +4661,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1.55</v>
+        <v>4.24</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4702,25 +4690,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>5.28</v>
+        <v>1.56</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4731,25 +4719,25 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>7.22</v>
+        <v>4.58</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4763,22 +4751,22 @@
         <v>10</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>4.55</v>
+        <v>2.32</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4789,25 +4777,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>7.33</v>
+        <v>1.08</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4818,25 +4806,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>4.67</v>
+        <v>4.97</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4847,25 +4835,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>4.23</v>
+        <v>2.24</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4876,25 +4864,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>430</v>
+        <v>109</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>9.35</v>
+        <v>3.76</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4905,22 +4893,22 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>2.7</v>
+        <v>4.32</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>6</v>
@@ -4934,25 +4922,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>3.54</v>
+        <v>6.59</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4963,25 +4951,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>9.15</v>
+        <v>6.16</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -4992,22 +4980,22 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>7</v>
@@ -5021,25 +5009,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>8.67</v>
+        <v>10.23</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5050,25 +5038,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>2.77</v>
+        <v>3.29</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5079,25 +5067,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>9</v>
+        <v>1.47</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5108,25 +5096,25 @@
         <v>165</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>4.08</v>
+        <v>2.13</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5137,25 +5125,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>4.27</v>
+        <v>10.13</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5169,22 +5157,22 @@
         <v>28</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>2.96</v>
+        <v>3.54</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5195,25 +5183,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>9.19</v>
+        <v>3.15</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5224,25 +5212,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>5.1</v>
+        <v>4.92</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5253,25 +5241,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>6.53</v>
+        <v>6.17</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5282,25 +5270,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>6.94</v>
+        <v>3.25</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5311,25 +5299,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>15.94</v>
+        <v>6.83</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5340,22 +5328,22 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>8.63</v>
+        <v>5.83</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>5</v>
@@ -5369,25 +5357,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>7.94</v>
+        <v>6.64</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5398,25 +5386,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>4.57</v>
+        <v>7.64</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5427,25 +5415,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>10.57</v>
+        <v>7.73</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5456,22 +5444,22 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>7.57</v>
+        <v>8.5</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>4</v>
@@ -5485,25 +5473,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>4.57</v>
+        <v>4</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5514,25 +5502,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="G163" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>15.67</v>
+        <v>1.63</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5543,25 +5531,25 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>3.83</v>
+        <v>8.38</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5572,25 +5560,25 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>1.92</v>
+        <v>5.14</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5601,25 +5589,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>10.09</v>
+        <v>1.29</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5630,25 +5618,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>5.38</v>
+        <v>3.71</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5659,22 +5647,22 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>2</v>
@@ -5691,19 +5679,19 @@
         <v>28</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>7.43</v>
+        <v>2.83</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>2</v>
@@ -5717,25 +5705,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>4.29</v>
+        <v>6.83</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5746,25 +5734,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G171" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I171" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="H171" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I171" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5775,25 +5763,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>2.71</v>
+        <v>21.4</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5807,22 +5795,22 @@
         <v>28</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>11.29</v>
+        <v>5.4</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5836,22 +5824,22 @@
         <v>30</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>3.14</v>
+        <v>7.2</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5862,22 +5850,22 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>7.67</v>
+        <v>11</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>2</v>
@@ -5891,25 +5879,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="G176" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I176" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="H176" s="0" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="I176" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5920,25 +5908,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5949,22 +5937,22 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>7.67</v>
+        <v>2.25</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>2</v>
@@ -5978,25 +5966,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>0.83</v>
+        <v>11.75</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6007,25 +5995,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6036,22 +6024,22 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>4</v>
+        <v>43.33</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>3</v>
@@ -6068,22 +6056,22 @@
         <v>30</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="I182" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="H182" s="0" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I182" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6094,25 +6082,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>5.2</v>
+        <v>0.67</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6123,25 +6111,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>6.2</v>
+        <v>1.33</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6152,25 +6140,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I185" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H185" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I185" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6181,25 +6169,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I186" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H186" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I186" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6210,25 +6198,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F187" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D187" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E187" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F187" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="G187" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6239,22 +6227,22 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>28.33</v>
+        <v>4.5</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>1</v>
@@ -6268,22 +6256,22 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>11.33</v>
+        <v>35.5</v>
       </c>
       <c r="I189" s="0" t="n">
         <v>2</v>
@@ -6297,22 +6285,22 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H190" s="0" t="n">
-        <v>0.67</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>1</v>
@@ -6326,25 +6314,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>0.67</v>
+        <v>6</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6355,7 +6343,7 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>2</v>
@@ -6364,13 +6352,13 @@
         <v>2</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>25</v>
+        <v>6.5</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>2</v>
@@ -6384,7 +6372,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>2</v>
@@ -6393,16 +6381,16 @@
         <v>2</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6413,7 +6401,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>2</v>
@@ -6422,16 +6410,16 @@
         <v>2</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6451,16 +6439,16 @@
         <v>2</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I195" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H195" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I195" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6471,7 +6459,7 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>2</v>
@@ -6509,16 +6497,16 @@
         <v>2</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>29.5</v>
+        <v>1</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6529,7 +6517,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>2</v>
@@ -6538,13 +6526,13 @@
         <v>2</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>1</v>
@@ -6558,7 +6546,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>2</v>
@@ -6587,22 +6575,22 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>1</v>
@@ -6619,22 +6607,22 @@
         <v>30</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6645,22 +6633,22 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D202" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G202" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E202" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F202" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H202" s="0" t="n">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>1</v>
@@ -6674,25 +6662,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6703,7 +6691,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>1</v>
@@ -6732,7 +6720,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>1</v>
@@ -6761,7 +6749,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>1</v>
@@ -6770,16 +6758,16 @@
         <v>1</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6790,7 +6778,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>1</v>
@@ -6819,7 +6807,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>1</v>
@@ -6828,16 +6816,16 @@
         <v>1</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6848,7 +6836,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -6867,122 +6855,6 @@
       </c>
       <c r="I209" s="0" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
-      <c r="A210" s="0" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D210" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G210" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I210" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
-      <c r="A211" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D211" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F211" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
-      <c r="A212" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D212" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F212" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="G212" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H212" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="I212" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
-      <c r="A213" s="0" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D213" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E213" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F213" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="G213" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="I213" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
